--- a/budget_overview.xlsx
+++ b/budget_overview.xlsx
@@ -15,6 +15,9 @@
     <sheet name="budgets" sheetId="1" r:id="rId1"/>
     <sheet name="transactions" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">transactions!$A$1:$F$122</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="224">
   <si>
     <t>Boodschappen</t>
   </si>
@@ -99,30 +102,15 @@
     <t>Netflix Monthly Subscription</t>
   </si>
   <si>
-    <t>Jumbo Berkel en Rod. BERKEL EN ROD Betaalautomaat 12:01 pasnr. 005</t>
-  </si>
-  <si>
     <t>boodschappen</t>
   </si>
   <si>
     <t>brandstof</t>
   </si>
   <si>
-    <t>STICHTING FOUNDATION DOCDATA</t>
-  </si>
-  <si>
-    <t>2831389687 1150000766864655 pid2831 389687t Goed Gemerkt B V Goed Gemer kt B.V.</t>
-  </si>
-  <si>
     <t>NO_CATEGORY</t>
   </si>
   <si>
-    <t>WorldPay Customer Payments</t>
-  </si>
-  <si>
-    <t>8003590854 0030002422412015 Order:4 15498574 000039Fashion Retail SA</t>
-  </si>
-  <si>
     <t>S.A.M. VREEBURG</t>
   </si>
   <si>
@@ -144,126 +132,21 @@
     <t>ASR LEVENSVERZEKERING</t>
   </si>
   <si>
-    <t>101354103 Premie per 01112017 Overl ijdensrisicoverzekering</t>
-  </si>
-  <si>
     <t>FBTO</t>
   </si>
   <si>
-    <t>FBTO Auto RELNR:2847032 PR EMIE PER.01-11-17/30-11-17</t>
-  </si>
-  <si>
-    <t>BP EXPRESS BERGSCHENHO BERGSCHENHOE Betaalautomaat 08:42 pasnr. 005</t>
-  </si>
-  <si>
-    <t>Erasmus Betaalaut 6 ROTTERDAM Betaalautomaat 09:16 pasnr. 005</t>
-  </si>
-  <si>
-    <t>Vitam Catering 11003 ROTTERDAM Betaalautomaat 13:10 pasnr. 005</t>
-  </si>
-  <si>
     <t>Kosten</t>
   </si>
   <si>
-    <t>Rabo DirectPakket Periode 01-11-2017 t/m 30-11-2017</t>
-  </si>
-  <si>
-    <t>(Extra) Rabo Wereldpas Periode 01-11-2017 t/m 30-11-2017</t>
-  </si>
-  <si>
-    <t>VOF Vandomburgh-noor DELFGAUW Betaalautomaat 10:50 pasnr. 008</t>
-  </si>
-  <si>
-    <t>Jumbo Berkel en Rod. BERKEL EN ROD Betaalautomaat 16:53 pasnr. 008</t>
-  </si>
-  <si>
-    <t>Beurs Calandlijn ROTTERDAM Betaalautomaat 16:56 pasnr. 005</t>
-  </si>
-  <si>
-    <t>Hema EV274 Berkel BERKEL EN ROD Betaalautomaat 19:36 pasnr. 008</t>
-  </si>
-  <si>
-    <t>Hema EV274 Berkel BERKEL EN ROD Betaalautomaat 19:37 pasnr. 008</t>
-  </si>
-  <si>
-    <t>Albert Heijn 1003 BERKEL EN ROD Betaalautomaat 20:30 pasnr. 008</t>
-  </si>
-  <si>
-    <t>Bakker Ammerlaan GOU BERKEL EN ROD Betaalautomaat 12:12 pasnr. 005</t>
-  </si>
-  <si>
-    <t>Restaurant Marmaris 'S-GRAVENHAGE Betaalautomaat 14:41 pasnr. 005</t>
-  </si>
-  <si>
     <t>ST PARKEERGELDEN NL</t>
   </si>
   <si>
-    <t>Parkmobile parkeren factuurnummer 3 5781831 Zie ook www.mijnparkmobile. nl</t>
-  </si>
-  <si>
-    <t>DUNEA DUIN WATER</t>
-  </si>
-  <si>
-    <t>KLANTNR 10122119 2652KS 21Voorschot factuur Water 63 98BTW 4 02 pre cario 3 00</t>
-  </si>
-  <si>
-    <t>HOEFBLADPLEIN 4 PIJNACKER Geldautomaat 09:32 pasnr. 005</t>
-  </si>
-  <si>
-    <t>GIMSEL/ SASARO BV ROTTERDAM Betaalautomaat 15:32 pasnr. 008</t>
-  </si>
-  <si>
-    <t>Gimsel/Sasa Robv ROTTERDAM Betaalautomaat 15:37 pasnr. 008</t>
-  </si>
-  <si>
-    <t>R.E.T. N.V. ROTTERDAM Betaalautomaat 17:35 pasnr. 008</t>
-  </si>
-  <si>
     <t>ZELF NL</t>
   </si>
   <si>
-    <t>Je Zelf premie met Factuurnummer 20 1 71103E+15</t>
-  </si>
-  <si>
     <t>BOKSVERENIGING CROOSWIJK</t>
   </si>
   <si>
-    <t>STG ADYEN</t>
-  </si>
-  <si>
-    <t>hollandsnieuwe HN PN 1212640039 181 5097153674460 HN RP 251205975.1</t>
-  </si>
-  <si>
-    <t>CCV*TOSTI WORLD ERASMU ROTTERDAM Betaalautomaat 12:15 pasnr. 005</t>
-  </si>
-  <si>
-    <t>CCV*SPORTFONDSEN LANSI BERGSCHENHOE Betaalautomaat 16:22 pasnr. 008</t>
-  </si>
-  <si>
-    <t>CCV*SPORTFONDSEN LANSI BERGSCHENHOE Betaalautomaat 17:05 pasnr. 008</t>
-  </si>
-  <si>
-    <t>WORLDPAY LIMITED</t>
-  </si>
-  <si>
-    <t>Terugbetaling door ZARA.COM voor be stelling 55135516</t>
-  </si>
-  <si>
-    <t>Jumbo Berkel en Rod. BERKEL EN ROD Betaalautomaat 17:38 pasnr. 005</t>
-  </si>
-  <si>
-    <t>CCV*R N LEIJS BERKEL EN ROD Betaalautomaat 17:41 pasnr. 005</t>
-  </si>
-  <si>
-    <t>RDW</t>
-  </si>
-  <si>
-    <t>59320300049 0030002442328569 iDeal</t>
-  </si>
-  <si>
-    <t>Gimsel/Sasa Robv ROTTERDAM Betaalautomaat 11:44 pasnr. 008</t>
-  </si>
-  <si>
     <t>N. LOPES</t>
   </si>
   <si>
@@ -273,247 +156,550 @@
     <t>P.F. Vreeburg</t>
   </si>
   <si>
-    <t>Zwembad</t>
-  </si>
-  <si>
     <t>media</t>
   </si>
   <si>
-    <t>CCV*KEURSLAGERIJ LANSI BERKEL EN RO Betaalautomaat 09:35 pasnr. 005</t>
-  </si>
-  <si>
     <t>BELASTINGDIENST</t>
   </si>
   <si>
-    <t>MAAND NOV. NR. 175659795H7001 IB/PVV 2017 (VREEBURG )</t>
-  </si>
-  <si>
-    <t>Ov</t>
-  </si>
-  <si>
-    <t>Bakker Ammerlaan GOU BERKEL EN ROD Betaalautomaat 11:44 pasnr. 008</t>
-  </si>
-  <si>
-    <t>ERASMUS UNIVERSITEIT ROT</t>
-  </si>
-  <si>
-    <t>0000051403 Declaratie van 31.10.17 Tot 31.10.17</t>
-  </si>
-  <si>
-    <t>Vitam Catering 11003 ROTTERDAM Betaalautomaat 13:12 pasnr. 005</t>
-  </si>
-  <si>
-    <t>CCV*SPORTFONDSEN LANSI BERGSCHENHOE Betaalautomaat 16:55 pasnr. 008</t>
-  </si>
-  <si>
-    <t>DE NATIONALE GROTE CLUBA</t>
-  </si>
-  <si>
-    <t>www.clubactie.nl Trekking 13-12  L otnummer: 4021932  SV Tot Ons Genoe gen Berkel - Afd Verkoper: Christij an Jacobs</t>
-  </si>
-  <si>
-    <t>TINQ BERKEL EN RODENRI BERKEL EN RO Betaalautomaat 08:11 pasnr. 005</t>
-  </si>
-  <si>
-    <t>Declaratie EUR</t>
-  </si>
-  <si>
-    <t>CCV*PONTIER RETAIL B.V VLAARDINGEN Betaalautomaat 11:52 pasnr. 005</t>
-  </si>
-  <si>
-    <t>JUMBO BERKEL &amp; RODENRI BER &amp; RODENR Geldautomaat 16:34 pasnr. 018</t>
-  </si>
-  <si>
-    <t>Jumbo Berkel en Rod. BERKEL EN ROD Betaalautomaat 16:54 pasnr. 018</t>
-  </si>
-  <si>
-    <t>Jumbo Berkel en Rod. BERKEL EN ROD Betaalautomaat 17:13 pasnr. 005</t>
-  </si>
-  <si>
-    <t>AVIA PIJNACKER PIJNACKER Betaalautomaat 11:43 pasnr. 018</t>
-  </si>
-  <si>
-    <t>Lidl 423 A'dam 2eHel AMSTERDAM Betaalautomaat 13:13 pasnr. 018</t>
-  </si>
-  <si>
     <t>Vandebron Energie B.V.</t>
   </si>
   <si>
-    <t>2029406/17702289988 TERMIJN DEC 201 7 / BIO-ENERGIE VAN HANS VAN DEN HE UVEL / ADRES: 2652KS21</t>
-  </si>
-  <si>
-    <t>MAAND DEC. NR. 175659795T700281 VOORSCHOT KINDEROPVANG 2017 (VREEBURG ) MEER INFO OP WWW.TOESLAGEN.NL</t>
-  </si>
-  <si>
     <t>SIMYO</t>
   </si>
   <si>
-    <t>Simyo:0641473569  FACTUURNUMMER:527 12124</t>
-  </si>
-  <si>
     <t>INTERPOLIS.</t>
   </si>
   <si>
-    <t>Alles in een Polis 00087239604 PERI ODE 23.11.2017 - 23.12.2017</t>
-  </si>
-  <si>
     <t>GEM RDAM SERVICEORG</t>
   </si>
   <si>
-    <t>SALARIS NOVEMBER</t>
-  </si>
-  <si>
-    <t>Schoolmelk</t>
-  </si>
-  <si>
-    <t>Koffie</t>
-  </si>
-  <si>
     <t>AUTOMATIC DATA PROCESSING LTD</t>
   </si>
   <si>
-    <t>SALARIS NOV 2017 PEUR</t>
-  </si>
-  <si>
-    <t>Cadeau Kiek</t>
-  </si>
-  <si>
-    <t>Stokpaarden</t>
-  </si>
-  <si>
-    <t>Jumbo Berkel en Rod. BERKEL EN ROD Betaalautomaat 13:01 pasnr. 018</t>
-  </si>
-  <si>
-    <t>Bakker Ammerlaan GOU BERKEL EN ROD Betaalautomaat 13:08 pasnr. 005</t>
-  </si>
-  <si>
-    <t>bol.com b.v.</t>
-  </si>
-  <si>
-    <t>4428096970 0050003026660409 bol.com bestelling 4428096970 bol.com</t>
-  </si>
-  <si>
-    <t>4428107210 0050003026664997 bol.com bestelling 4428107210 bol.com</t>
-  </si>
-  <si>
-    <t>Onesie Cato</t>
-  </si>
-  <si>
-    <t>Belevenisboerderij BERKEL EN ROD Betaalautomaat 17:47 pasnr. 005</t>
-  </si>
-  <si>
-    <t>CCV*MC DONALDS BERKEL BERKEL EN ROD Betaalautomaat 18:17 pasnr. 005</t>
-  </si>
-  <si>
-    <t>4428741780 0050003027169496 bol.com bestelling 4428741780 bol.com</t>
-  </si>
-  <si>
-    <t>Maandelijkse storting zakgeld - sporten J ippie</t>
-  </si>
-  <si>
-    <t>Maandelijkse storting zakgeld J ippie</t>
-  </si>
-  <si>
     <t>N. LOPES EO</t>
   </si>
   <si>
     <t>Sparen voor onderhoud huis</t>
   </si>
   <si>
-    <t>Sparen voor alles wat we niet gebud getteerdgebudgetteerd hebben in and ere spaarrekeningen</t>
-  </si>
-  <si>
-    <t>Kunsthalcafe ROTTERDAM Betaalautomaat 11:31 pasnr. 005</t>
-  </si>
-  <si>
-    <t>Parking R'damMusea ROTTERDAM Betaalautomaat 14:00 pasnr. 018</t>
-  </si>
-  <si>
     <t>DUO Hoofdrekening</t>
   </si>
   <si>
-    <t>6912595 DUO langlopende studiesc huld termijn 11/2017</t>
-  </si>
-  <si>
-    <t>11644982 DUO langlopende studiesc huld termijn 11/2017</t>
-  </si>
-  <si>
-    <t>Berkel - Westpolder ROTTERDAM Betaalautomaat 08:26 pasnr. 018</t>
-  </si>
-  <si>
-    <t>Zilveren Kruis Zorgverzekeringen NV</t>
-  </si>
-  <si>
-    <t>Premie Zilveren Kruis Relatienummer 180570536 Periode 01-12-2017 - 01- 43101</t>
-  </si>
-  <si>
-    <t>WESTERPLEIN 10 BERKEL EN ROD Geldautomaat 09:48 pasnr. 005</t>
-  </si>
-  <si>
-    <t>Albert Heijn 1003 BERKEL EN ROD Betaalautomaat 10:27 pasnr. 005</t>
-  </si>
-  <si>
-    <t>97-TXF-6 23-10-2017 t/m 22-11-2017 MEER INFO WWW.BELASTINGDIENST.NL</t>
-  </si>
-  <si>
-    <t>Premie Zilveren Kruis Relatienummer 158078551 Periode 01-12-2017 - 01- 43101</t>
-  </si>
-  <si>
-    <t>Donner Sinterklaas</t>
-  </si>
-  <si>
-    <t>De Kleine Kapitein ROTTERDAM Betaalautomaat 13:52 pasnr. 018</t>
-  </si>
-  <si>
-    <t>Spirit ROTTERDAM Betaalautomaat 13:56 pasnr. 018</t>
-  </si>
-  <si>
-    <t>Spirit ROTTERDAM Betaalautomaat 17:25 pasnr. 018</t>
-  </si>
-  <si>
-    <t>Gimsel/Sasa Robv ROTTERDAM Betaalautomaat 17:55 pasnr. 018</t>
-  </si>
-  <si>
-    <t>Gimsel/Sasa Robv ROTTERDAM Betaalautomaat 19:54 pasnr. 018</t>
-  </si>
-  <si>
     <t>STICHTING DERDENGELDEN BUCKAROO</t>
   </si>
   <si>
-    <t>T-Mobile Thuis B.V.: Rekening nov 2 017. Bekijk je rekening op thuismy. t-mobile.nl</t>
-  </si>
-  <si>
-    <t>HTM PERSONENVERVOER 'S-GRAVENHAGE Betaalautomaat 09:07 pasnr. 005</t>
-  </si>
-  <si>
-    <t>LaunspachOsteopathie ROTTERDAM Betaalautomaat 15:13 pasnr. 018</t>
-  </si>
-  <si>
-    <t>CCV*OV BIESIEKLETTE S GRAVENHAGE Betaalautomaat 17:36 pasnr. 005</t>
-  </si>
-  <si>
-    <t>STICHTING KINDERSPEELZAA</t>
-  </si>
-  <si>
-    <t>Incasso factuur 4201700357</t>
-  </si>
-  <si>
-    <t>ASR LEVVERZ</t>
-  </si>
-  <si>
-    <t>Termijnbetaling hypotheek PERIODE 1 42736</t>
-  </si>
-  <si>
-    <t>SVHW</t>
-  </si>
-  <si>
-    <t>HEFFINGEN NOVEMBER Betaalkenmerk 39 4995843</t>
-  </si>
-  <si>
-    <t>Berkel - Westpolder ROTTERDAM Betaalautomaat 08:57 pasnr. 018</t>
-  </si>
-  <si>
-    <t>Trekpleister 1477 BERKEL EN ROD Betaalautomaat 18:02 pasnr. 005</t>
+    <t>All-Inn Kidzcity UTRECHT</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 11:23 pasnr. 005</t>
+  </si>
+  <si>
+    <t>KidZcity UTRECHT</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 12:18 pasnr. 005</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 15:16 pasnr. 005</t>
+  </si>
+  <si>
+    <t>Albert Heijn 1605 PIJNACKER</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 19:51 pasnr. 018</t>
+  </si>
+  <si>
+    <t>CCV*YOGA MAYA ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 10:51 pasnr. 018</t>
+  </si>
+  <si>
+    <t>sporten</t>
+  </si>
+  <si>
+    <t>Doelsparen kinderbijslag</t>
+  </si>
+  <si>
+    <t>Ototol bv Leiden LEIDEN</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 16:42 pasnr. 018</t>
+  </si>
+  <si>
+    <t>SVB ROTTERDAM AKW</t>
+  </si>
+  <si>
+    <t>Sociale Verzekeringsbank UTRECHT KINDERBIJSLAG 4e Kwartaal 2017 Uw klantnr. 1275.25.543 WWW.SVB.NL</t>
+  </si>
+  <si>
+    <t>Zilveren Kruis Zorgverzekeringen  NV</t>
+  </si>
+  <si>
+    <t>Premie Zilveren Kruis Relatienummer 158078551 Periode 01-01-2018 - 01-02-2018</t>
+  </si>
+  <si>
+    <t>gezondheid</t>
+  </si>
+  <si>
+    <t>FBTO Auto          RELNR:2847032 PREMIE     PER.01-01-18/31-01-18</t>
+  </si>
+  <si>
+    <t>Bakker Ammerlaan HER BERKEL EN ROD</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 12:06 pasnr. 005</t>
+  </si>
+  <si>
+    <t>101354103 Premie per 01012018 Overlijdensrisicoverzekering</t>
+  </si>
+  <si>
+    <t>Sportcen. Wilgenring ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 11:59 pasnr. 005</t>
+  </si>
+  <si>
+    <t>Berkel - Westpolder ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 13:11 pasnr. 018</t>
+  </si>
+  <si>
+    <t>openbaar vervoer</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 13:12 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Spirit ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 14:34 pasnr. 018</t>
+  </si>
+  <si>
+    <t>uit eten</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 14:35 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Gimsel/Sasa Robv ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 15:15 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Laurenskerk ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 15:43 pasnr. 018</t>
+  </si>
+  <si>
+    <t>TINQ BERKEL EN RODENRI BERKEL EN ROD</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 15:43 pasnr. 005</t>
+  </si>
+  <si>
+    <t>La Pizza Noord ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 18:27 pasnr. 005</t>
+  </si>
+  <si>
+    <t>Jumbo Berkel en Rod. BERKEL EN ROD</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 18:51 pasnr. 005</t>
+  </si>
+  <si>
+    <t>Kaartje2go by Adyen</t>
+  </si>
+  <si>
+    <t>1415150103901287 0030002568033939 Kaartje2go.nl - Order 11800912</t>
+  </si>
+  <si>
+    <t>Rabo DirectPakket                  Periode 01-01-2018 t/m 31-01-2018</t>
+  </si>
+  <si>
+    <t>(Extra) Rabo Wereldpas             Periode 01-01-2018 t/m 31-01-2018</t>
+  </si>
+  <si>
+    <t>SKVR</t>
+  </si>
+  <si>
+    <t>R27482 0030002568586184 AD-R-C-010 SKVR</t>
+  </si>
+  <si>
+    <t>By Lima - Haarlem HILLEGOM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 11:52 pasnr. 005</t>
+  </si>
+  <si>
+    <t>DIJKERS HAARLEM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 15:25 pasnr. 005</t>
+  </si>
+  <si>
+    <t>Parkeergelden HAARLEM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 16:19 pasnr. 005</t>
+  </si>
+  <si>
+    <t>ADYEN BV</t>
+  </si>
+  <si>
+    <t>hollandsnieuwe HN PN 1212640039 1515149885304214 HN RP 263706204.1</t>
+  </si>
+  <si>
+    <t>Je Zelf premie met Factuurnummer 201801030149590281</t>
+  </si>
+  <si>
+    <t>Quinto Kappers BERKEL EN ROD</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 10:55 pasnr. 018</t>
+  </si>
+  <si>
+    <t>persoonlijke verzorging</t>
+  </si>
+  <si>
+    <t>STUDIO NEST ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 12:08 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 12:09 pasnr. 018</t>
+  </si>
+  <si>
+    <t>C&amp;M*LOF DER ZOETHEID ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 12:53 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Inter IKEA Systems B DELFT</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 13:10 pasnr. 005</t>
+  </si>
+  <si>
+    <t>huis en inrichting</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 13:34 pasnr. 005</t>
+  </si>
+  <si>
+    <t>Adyen</t>
+  </si>
+  <si>
+    <t>4315152717836581 0030002575082357 Je bestelling bij fonQ 000965FonqNL</t>
+  </si>
+  <si>
+    <t>F.A.R. Tjin Kam Jet</t>
+  </si>
+  <si>
+    <t>Boek Your Body Never Lies</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 13:37 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Parkmobile parkeren factuurnummer 38747181 Zie ook www.mijnparkmobile.nl</t>
+  </si>
+  <si>
+    <t>parkeren</t>
+  </si>
+  <si>
+    <t>Albert Heijn 1551 ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 14:28 pasnr. 018</t>
+  </si>
+  <si>
+    <t>CCV*SPORTFONDSEN LANSI BERGSCHENHOEK</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 16:06 pasnr. 005</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 17:51 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Zwemles Cato</t>
+  </si>
+  <si>
+    <t>Zwemles Cato voorgeschoten</t>
+  </si>
+  <si>
+    <t>ABN AMRO Bank NV</t>
+  </si>
+  <si>
+    <t>000016186044 0030002579952097 Lishen NL37INGB0002291658</t>
+  </si>
+  <si>
+    <t>GEM ROTTERDAM 1319 ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 14:58 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 16:49 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 08:12 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 10:10 pasnr. 005</t>
+  </si>
+  <si>
+    <t>N. Lopes eo</t>
+  </si>
+  <si>
+    <t>Cadeau Cato</t>
+  </si>
+  <si>
+    <t>Cadeau Cato voorgeschoten</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 12:14 pasnr. 005</t>
+  </si>
+  <si>
+    <t>Kapper</t>
+  </si>
+  <si>
+    <t>DyeHard Kapper ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 16:12 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Albert Heijn 1003 BERKEL EN ROD</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 18:19 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Hema EV274 Berkel BERKEL EN ROD</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 18:22 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Pizza Pronto B.V. SCHIEDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 22:26 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Bakker Ammerlaan PEP ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 11:23 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 11:38 pasnr. 005</t>
+  </si>
+  <si>
+    <t>Isshoe Peppelweg 132 ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 12:27 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Maaspodium ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 10:42 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Stichting Mollie Payments</t>
+  </si>
+  <si>
+    <t>M2422441M11936WY 0030002592536979 Order: BAW-0000054895 137777Bakker Ammerlaan Retail B.V.</t>
+  </si>
+  <si>
+    <t>MAAND JAN. NR. 175659795H8001      IB/PVV 2018       (VREEBURG    )</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 13:59 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 15:42 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 17:14 pasnr. 018</t>
+  </si>
+  <si>
+    <t>000016791164 0030002595101757 Sanne NL36INGB0004296957</t>
+  </si>
+  <si>
+    <t>BETAALVERZOEK RABOBANK</t>
+  </si>
+  <si>
+    <t>Mw S den Houter en/of Hr S Jongeneel NL36INGB0004296957 Cadeau Mik</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 13:39 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Rotterdam CS ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 17:21 pasnr. 005</t>
+  </si>
+  <si>
+    <t>Stadhuis ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 17:23 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 11:50 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Studentenpaviljoen ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 13:24 pasnr. 005</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 20:09 pasnr. 018</t>
+  </si>
+  <si>
+    <t>SPAR University EUR ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 10:05 pasnr. 005</t>
+  </si>
+  <si>
+    <t>CCV*THOMS RESTAURANT E ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 15:46 pasnr. 018</t>
+  </si>
+  <si>
+    <t>ALBERT HEIJN 1658 ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 19:10 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 10:41 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 12:21 pasnr. 005</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 12:23 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Letterkundig Museum 'S-GRAVENHAGE</t>
+  </si>
+  <si>
+    <t>Sushi Time Den Haag 'S-GRAVENHAGE</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 17:11 pasnr. 005</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 17:19 pasnr. 005</t>
+  </si>
+  <si>
+    <t>HMSHOST DEN HAAG CS DEN HAAG</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 17:33 pasnr. 005</t>
+  </si>
+  <si>
+    <t>NS-Den Haag C. 110 'S-GRAVENHAGE</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 17:59 pasnr. 005</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 18:00 pasnr. 005</t>
+  </si>
+  <si>
+    <t>2029406/18700135742 TERMIJN FEB 2018 / BIO-ENERGIE VAN HANS VAN DEN HEUVEL / ADRES: 2652KS21</t>
+  </si>
+  <si>
+    <t>MAAND FEB. NR. 175659795T800011    VOORSCHOT KINDEROPVANG 2018        (VREEBURG    )                     MEER INFO OP WWW.TOESLAGEN.NL</t>
+  </si>
+  <si>
+    <t>Alles in een Polis 00087239604 PERIODE 23.01.2018 - 23.02.2018</t>
+  </si>
+  <si>
+    <t>M VAN DER HOEVEN NL46ABNA0505808463 Cadeau Mik</t>
+  </si>
+  <si>
+    <t>Simyo:0641473569, FACTUURNUMMER:53276337</t>
+  </si>
+  <si>
+    <t>Salarisverwerking 01 2018</t>
+  </si>
+  <si>
+    <t>SPY*Ontdekhoek Rotterd Rotterdam</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 12:45 pasnr. 005</t>
+  </si>
+  <si>
+    <t>6912595    DUO langlopende studieschuld termijn 01/2018</t>
+  </si>
+  <si>
+    <t>11644982   DUO langlopende studieschuld termijn 01/2018</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 08:26 pasnr. 018</t>
+  </si>
+  <si>
+    <t>Betaalautomaat 08:52 pasnr. 005</t>
+  </si>
+  <si>
+    <t>SAL JANUARI 2018 PEUR</t>
+  </si>
+  <si>
+    <t>Boodschappen kinderfeestje Cato voorgeschoten</t>
+  </si>
+  <si>
+    <t>Boodschappen voorgeschoten</t>
+  </si>
+  <si>
+    <t>VREEBURG P F</t>
+  </si>
+  <si>
+    <t>Bijdrage Netflix ouders Piet</t>
+  </si>
+  <si>
+    <t>Concert-en congresgebouw De Doelen</t>
+  </si>
+  <si>
+    <t>TM1462835 0030002617823549 Bestelling De Doelen De Doelen</t>
+  </si>
+  <si>
+    <t>Sparen voor alles wat we niet gebudgetteerdgebudgetteerd hebben in andere spaarrekeningen</t>
+  </si>
+  <si>
+    <t>Maandelijkse storting zakgeld -    sporten J                          ippie</t>
+  </si>
+  <si>
+    <t>Maandelijkse storting zakgeld J    ippie</t>
+  </si>
+  <si>
+    <t>Oxfam Novib</t>
+  </si>
+  <si>
+    <t>Algemeen donateurschap,Periode 01/02/2018 01/03/2018,Bedankt voor uw bijdrage</t>
+  </si>
+  <si>
+    <t>T-Mobile Thuis B.V.: Rekening jan 2018. Bekijk je rekening op thuismy.t-mobile.nl</t>
   </si>
 </sst>
 </file>
@@ -911,7 +1097,7 @@
       </c>
       <c r="C2" s="3">
         <f>SUMIFS(transactions!$E:$E,transactions!$F:$F,$A2,transactions!$B:$B,C$1)</f>
-        <v>0</v>
+        <v>831.82999999999993</v>
       </c>
       <c r="D2" s="3">
         <f>SUMIFS(transactions!$E:$E,transactions!$F:$F,$A2,transactions!$B:$B,D$1)</f>
@@ -951,11 +1137,11 @@
       </c>
       <c r="M2" s="3">
         <f>SUMIFS(transactions!$E:$E,transactions!$F:$F,$A2,transactions!$B:$B,M$1)</f>
-        <v>257.68</v>
+        <v>0</v>
       </c>
       <c r="N2" s="3">
         <f>SUMIFS(transactions!$E:$E,transactions!$F:$F,$A2,transactions!$B:$B,N$1)</f>
-        <v>19.61</v>
+        <v>163.69</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -967,7 +1153,7 @@
       </c>
       <c r="C3" s="3">
         <f>SUMIFS(transactions!$E:$E,transactions!$F:$F,$A3,transactions!$B:$B,C$1)</f>
-        <v>0</v>
+        <v>102.03</v>
       </c>
       <c r="D3" s="3">
         <f>SUMIFS(transactions!$E:$E,transactions!$F:$F,$A3,transactions!$B:$B,D$1)</f>
@@ -1007,11 +1193,11 @@
       </c>
       <c r="M3" s="3">
         <f>SUMIFS(transactions!$E:$E,transactions!$F:$F,$A3,transactions!$B:$B,M$1)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N3" s="3">
         <f>SUMIFS(transactions!$E:$E,transactions!$F:$F,$A3,transactions!$B:$B,N$1)</f>
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1079,7 +1265,7 @@
       </c>
       <c r="C5" s="3">
         <f>SUMIFS(transactions!$E:$E,transactions!$F:$F,$A5,transactions!$B:$B,C$1)</f>
-        <v>0</v>
+        <v>140.9</v>
       </c>
       <c r="D5" s="3">
         <f>SUMIFS(transactions!$E:$E,transactions!$F:$F,$A5,transactions!$B:$B,D$1)</f>
@@ -1135,7 +1321,7 @@
       </c>
       <c r="C6" s="3">
         <f>SUMIFS(transactions!$E:$E,transactions!$F:$F,$A6,transactions!$B:$B,C$1)</f>
-        <v>0</v>
+        <v>123.09</v>
       </c>
       <c r="D6" s="3">
         <f>SUMIFS(transactions!$E:$E,transactions!$F:$F,$A6,transactions!$B:$B,D$1)</f>
@@ -1415,7 +1601,7 @@
       </c>
       <c r="C11" s="3">
         <f>SUMIFS(transactions!$E:$E,transactions!$F:$F,$A11,transactions!$B:$B,C$1)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3">
         <f>SUMIFS(transactions!$E:$E,transactions!$F:$F,$A11,transactions!$B:$B,D$1)</f>
@@ -1527,7 +1713,7 @@
       </c>
       <c r="C13" s="3">
         <f>SUMIFS(transactions!$E:$E,transactions!$F:$F,$A13,transactions!$B:$B,C$1)</f>
-        <v>0</v>
+        <v>12.83</v>
       </c>
       <c r="D13" s="3">
         <f>SUMIFS(transactions!$E:$E,transactions!$F:$F,$A13,transactions!$B:$B,D$1)</f>
@@ -1583,7 +1769,7 @@
       </c>
       <c r="C14" s="3">
         <f>SUMIFS(transactions!$E:$E,transactions!$F:$F,$A14,transactions!$B:$B,C$1)</f>
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="D14" s="3">
         <f>SUMIFS(transactions!$E:$E,transactions!$F:$F,$A14,transactions!$B:$B,D$1)</f>
@@ -1639,7 +1825,7 @@
       </c>
       <c r="C15" s="3">
         <f>SUMIFS(transactions!$E:$E,transactions!$F:$F,$A15,transactions!$B:$B,C$1)</f>
-        <v>0</v>
+        <v>28.75</v>
       </c>
       <c r="D15" s="3">
         <f>SUMIFS(transactions!$E:$E,transactions!$F:$F,$A15,transactions!$B:$B,D$1)</f>
@@ -1800,11 +1986,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1833,19 +2017,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>43040</v>
+        <v>43099</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>34.5</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -1853,19 +2037,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>43040</v>
+        <v>43099</v>
       </c>
       <c r="B3">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E3">
-        <v>170</v>
+        <v>5.4</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -1873,2066 +2057,2383 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>43040</v>
+        <v>43099</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>4.5</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>43040</v>
+        <v>43099</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>163.69</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>43040</v>
+        <v>43100</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>43040</v>
+        <v>43101</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>43040</v>
+        <v>43101</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>39.450000000000003</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>43041</v>
+        <v>43101</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E9">
-        <v>40.15</v>
+        <v>593.01</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>43041</v>
+        <v>43101</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>43041</v>
+        <v>43101</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E11">
-        <v>2.52</v>
+        <v>25.79</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>43042</v>
+        <v>43102</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E12">
-        <v>1.3</v>
+        <v>-601.77</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>43042</v>
+        <v>43102</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E13">
-        <v>1.4</v>
+        <v>140.9</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>43042</v>
+        <v>43102</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E14">
-        <v>27</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>43042</v>
+        <v>43102</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E15">
-        <v>19.61</v>
+        <v>11.28</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>43042</v>
+        <v>43103</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>22.5</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>43045</v>
+        <v>43103</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E17">
-        <v>14.75</v>
+        <v>7.2</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>43045</v>
+        <v>43103</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="E18">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>43045</v>
+        <v>43103</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="E19">
-        <v>166.79</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>43045</v>
+        <v>43103</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="E20">
-        <v>10.49</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>43045</v>
+        <v>43103</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E21">
-        <v>4.75</v>
+        <v>10.8</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>43045</v>
+        <v>43103</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>43045</v>
+        <v>43103</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="E23">
-        <v>13.25</v>
+        <v>31.11</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>43045</v>
+        <v>43103</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E24">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>43045</v>
+        <v>43103</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E25">
-        <v>100</v>
+        <v>65.760000000000005</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>43045</v>
+        <v>43103</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="E26">
-        <v>9.35</v>
+        <v>105</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>43045</v>
+        <v>43103</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E27">
-        <v>32.26</v>
+        <v>9.18</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>43045</v>
+        <v>43103</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>43046</v>
+        <v>43104</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="E29">
-        <v>9.91</v>
+        <v>1.3</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>43046</v>
+        <v>43104</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
       </c>
       <c r="E30">
-        <v>27.5</v>
+        <v>1.4</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>43046</v>
+        <v>43104</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E31">
-        <v>16</v>
+        <v>27.5</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>43046</v>
+        <v>43104</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="E32">
-        <v>3.25</v>
+        <v>71</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>43047</v>
+        <v>43104</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="E33">
-        <v>127.1</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>43047</v>
+        <v>43104</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="E34">
-        <v>2.65</v>
+        <v>25</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>43049</v>
+        <v>43104</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E35">
-        <v>-68.75</v>
+        <v>17.48</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>43049</v>
+        <v>43105</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="E36">
-        <v>1.1200000000000001</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>43049</v>
+        <v>43105</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>9.91</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>43052</v>
+        <v>43105</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="E38">
-        <v>24</v>
+        <v>59.5</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>43052</v>
+        <v>43105</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E39">
-        <v>106.45</v>
+        <v>0.65</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>43052</v>
+        <v>43105</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="E40">
-        <v>-50</v>
+        <v>64.349999999999994</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>43052</v>
+        <v>43105</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="E41">
-        <v>20.05</v>
+        <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>43052</v>
+        <v>43106</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="E42">
-        <v>22</v>
+        <v>114.09</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>43052</v>
+        <v>43106</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="E43">
-        <v>9.99</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>43052</v>
+        <v>43106</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="E44">
-        <v>4.9800000000000004</v>
+        <v>29.95</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>43054</v>
+        <v>43106</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="E45">
-        <v>-449</v>
+        <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>43054</v>
+        <v>43107</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>133.34</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>43054</v>
+        <v>43108</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E47">
-        <v>16.43</v>
+        <v>12.83</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>43054</v>
+        <v>43108</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="E48">
-        <v>13.04</v>
+        <v>3.29</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>43054</v>
+        <v>43108</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="E49">
-        <v>6.7</v>
+        <v>4.7</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>43054</v>
+        <v>43108</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="E50">
-        <v>-1038.78</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>43054</v>
+        <v>43108</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="E51">
-        <v>2.79</v>
+        <v>-130.9</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>43054</v>
+        <v>43108</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>41</v>
       </c>
       <c r="D52" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E52">
-        <v>4.55</v>
+        <v>130.9</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>43055</v>
+        <v>43109</v>
       </c>
       <c r="B53">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>43055</v>
+        <v>43109</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>138</v>
       </c>
       <c r="D54" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="E54">
-        <v>35.369999999999997</v>
+        <v>1.6</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>43056</v>
+        <v>43110</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="E55">
-        <v>1038.78</v>
+        <v>4.55</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>43056</v>
+        <v>43111</v>
       </c>
       <c r="B56">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E56">
-        <v>37.42</v>
+        <v>10.99</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>43056</v>
+        <v>43111</v>
       </c>
       <c r="B57">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
         <v>79</v>
-      </c>
-      <c r="D57" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>15.3</v>
-      </c>
-      <c r="F57" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>43059</v>
+        <v>43111</v>
       </c>
       <c r="B58">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>77</v>
       </c>
       <c r="D58" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="E58">
-        <v>21.98</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>43059</v>
+        <v>43111</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="E59">
-        <v>8.4499999999999993</v>
+        <v>-60</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>43059</v>
+        <v>43111</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E60">
-        <v>19.68</v>
+        <v>60</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>43059</v>
+        <v>43111</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>93</v>
       </c>
       <c r="D61" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="E61">
-        <v>150</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>43059</v>
+        <v>43111</v>
       </c>
       <c r="B62">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>143</v>
       </c>
       <c r="D62" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="E62">
-        <v>38.76</v>
+        <v>-50</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>43059</v>
+        <v>43111</v>
       </c>
       <c r="B63">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>148</v>
       </c>
       <c r="D63" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="E63">
-        <v>4.3899999999999997</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>43059</v>
+        <v>43112</v>
       </c>
       <c r="B64">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="E64">
-        <v>35.58</v>
+        <v>-150</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>43059</v>
+        <v>43112</v>
       </c>
       <c r="B65">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>150</v>
       </c>
       <c r="D65" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="E65">
-        <v>6.07</v>
+        <v>60</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>43059</v>
+        <v>43112</v>
       </c>
       <c r="B66">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="D66" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="E66">
-        <v>130</v>
+        <v>0.5</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>43059</v>
+        <v>43112</v>
       </c>
       <c r="B67">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="E67">
-        <v>-47</v>
+        <v>27</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>43061</v>
+        <v>43113</v>
       </c>
       <c r="B68">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="D68" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="E68">
-        <v>14</v>
+        <v>-150</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>43062</v>
+        <v>43113</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="D69" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="E69">
-        <v>41.58</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>43062</v>
+        <v>43113</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D70" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="E70">
-        <v>-2425.59</v>
+        <v>74.260000000000005</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>43062</v>
+        <v>43113</v>
       </c>
       <c r="B71">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E71">
-        <v>29.86</v>
+        <v>60</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>43062</v>
+        <v>43113</v>
       </c>
       <c r="B72">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D72" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E72">
-        <v>54.55</v>
+        <v>23.23</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>43062</v>
+        <v>43114</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="D73" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="E73">
-        <v>10</v>
+        <v>3.9</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>43062</v>
+        <v>43114</v>
       </c>
       <c r="B74">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="D74" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="E74">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>43063</v>
+        <v>43115</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="D75" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="E75">
-        <v>-2924.07</v>
+        <v>-451</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>43066</v>
+        <v>43115</v>
       </c>
       <c r="B76">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C76" t="s">
         <v>81</v>
       </c>
       <c r="D76" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="E76">
-        <v>37.99</v>
+        <v>2.25</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>43066</v>
+        <v>43115</v>
       </c>
       <c r="B77">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D77" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="E77">
-        <v>27</v>
+        <v>1.65</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>43066</v>
+        <v>43115</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>81</v>
       </c>
       <c r="D78" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="E78">
-        <v>52.92</v>
+        <v>13.2</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>43066</v>
+        <v>43116</v>
       </c>
       <c r="B79">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>136</v>
       </c>
       <c r="D79" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="E79">
-        <v>9.4499999999999993</v>
+        <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>43066</v>
+        <v>43116</v>
       </c>
       <c r="B80">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="D80" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="E80">
-        <v>34.99</v>
+        <v>-15</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>43066</v>
+        <v>43116</v>
       </c>
       <c r="B81">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="D81" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="E81">
-        <v>21.99</v>
+        <v>45.52</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>43066</v>
+        <v>43116</v>
       </c>
       <c r="B82">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="E82">
-        <v>19.989999999999998</v>
+        <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>43066</v>
+        <v>43116</v>
       </c>
       <c r="B83">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>175</v>
       </c>
       <c r="D83" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="E83">
-        <v>1.75</v>
+        <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>43066</v>
+        <v>43117</v>
       </c>
       <c r="B84">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>93</v>
       </c>
       <c r="D84" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="E84">
-        <v>30.3</v>
+        <v>5.81</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>43066</v>
+        <v>43117</v>
       </c>
       <c r="B85">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="D85" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="E85">
-        <v>22.57</v>
+        <v>6.3</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>43066</v>
+        <v>43117</v>
       </c>
       <c r="B86">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D86" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="E86">
-        <v>130</v>
+        <v>24.52</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>43066</v>
+        <v>43118</v>
       </c>
       <c r="B87">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="D87" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="E87">
-        <v>130</v>
+        <v>9.34</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>43066</v>
+        <v>43118</v>
       </c>
       <c r="B88">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="D88" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="E88">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>43066</v>
+        <v>43118</v>
       </c>
       <c r="B89">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="D89" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="E89">
-        <v>400</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>43066</v>
+        <v>43120</v>
       </c>
       <c r="B90">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="E90">
-        <v>21</v>
+        <v>36.270000000000003</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <v>43066</v>
+        <v>43120</v>
       </c>
       <c r="B91">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>93</v>
       </c>
       <c r="D91" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="E91">
-        <v>6</v>
+        <v>89.73</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <v>43066</v>
+        <v>43120</v>
       </c>
       <c r="B92">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="D92" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="E92">
-        <v>74.23</v>
+        <v>3.59</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
-        <v>43066</v>
+        <v>43121</v>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="D93" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="E93">
-        <v>70.06</v>
+        <v>6</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>43066</v>
+        <v>43121</v>
       </c>
       <c r="B94">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>191</v>
       </c>
       <c r="D94" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="E94">
-        <v>10</v>
+        <v>26.5</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
-        <v>43066</v>
+        <v>43121</v>
       </c>
       <c r="B95">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="D95" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="E95">
-        <v>117.88</v>
+        <v>2.75</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <v>43066</v>
+        <v>43121</v>
       </c>
       <c r="B96">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>194</v>
       </c>
       <c r="D96" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="E96">
-        <v>150</v>
+        <v>11.5</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <v>43066</v>
+        <v>43121</v>
       </c>
       <c r="B97">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>196</v>
       </c>
       <c r="D97" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="E97">
-        <v>67.7</v>
+        <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>43066</v>
+        <v>43121</v>
       </c>
       <c r="B98">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="D98" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="E98">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>43066</v>
+        <v>43122</v>
       </c>
       <c r="B99">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="D99" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="E99">
-        <v>118.78</v>
+        <v>145</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
-        <v>43066</v>
+        <v>43122</v>
       </c>
       <c r="B100">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D100" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="E100">
-        <v>11.5</v>
+        <v>-49</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <v>43066</v>
+        <v>43123</v>
       </c>
       <c r="B101">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>46</v>
       </c>
       <c r="D101" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E101">
-        <v>12.98</v>
+        <v>41.58</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
-        <v>43066</v>
+        <v>43123</v>
       </c>
       <c r="B102">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>170</v>
       </c>
       <c r="D102" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="E102">
-        <v>2.25</v>
+        <v>-15</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
-        <v>43066</v>
+        <v>43124</v>
       </c>
       <c r="B103">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>45</v>
       </c>
       <c r="D103" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="E103">
-        <v>2.25</v>
+        <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
-        <v>43066</v>
+        <v>43124</v>
       </c>
       <c r="B104">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>47</v>
       </c>
       <c r="D104" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="E104">
-        <v>38.18</v>
+        <v>-2235.94</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
-        <v>43067</v>
+        <v>43124</v>
       </c>
       <c r="B105">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>205</v>
       </c>
       <c r="D105" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="E105">
-        <v>13.86</v>
+        <v>86</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
-        <v>43067</v>
+        <v>43124</v>
       </c>
       <c r="B106">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="D106" t="s">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>32.5</v>
+        <v>18.75</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
-        <v>43067</v>
+        <v>43125</v>
       </c>
       <c r="B107">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>51</v>
       </c>
       <c r="D107" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="E107">
-        <v>3.5</v>
+        <v>74.23</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
-        <v>43067</v>
+        <v>43125</v>
       </c>
       <c r="B108">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>51</v>
       </c>
       <c r="D108" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="E108">
-        <v>75</v>
+        <v>70.06</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <v>43067</v>
+        <v>43125</v>
       </c>
       <c r="B109">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>77</v>
       </c>
       <c r="D109" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="E109">
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
-        <v>43068</v>
+        <v>43125</v>
       </c>
       <c r="B110">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="D110" t="s">
-        <v>156</v>
-      </c>
-      <c r="E110">
-        <v>166.31</v>
+        <v>210</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G110">
+        <v>31.61</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
-        <v>43068</v>
+        <v>43125</v>
       </c>
       <c r="B111">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="D111" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="E111">
-        <v>1490.56</v>
+        <v>-2702.06</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
-        <v>43069</v>
+        <v>43125</v>
       </c>
       <c r="B112">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="D112" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="E112">
-        <v>88.52</v>
+        <v>41.25</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
-        <v>43069</v>
+        <v>43125</v>
       </c>
       <c r="B113">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>41</v>
       </c>
       <c r="D113" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="E113">
-        <v>10</v>
+        <v>39.85</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
-        <v>43069</v>
+        <v>43125</v>
       </c>
       <c r="B114">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>214</v>
       </c>
       <c r="D114" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="E114">
-        <v>2.4900000000000002</v>
+        <v>-36</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>43125</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>216</v>
+      </c>
+      <c r="D115" t="s">
+        <v>217</v>
+      </c>
+      <c r="E115">
+        <v>28</v>
+      </c>
+      <c r="F115" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <v>43126</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" t="s">
+        <v>50</v>
+      </c>
+      <c r="E116">
+        <v>150</v>
+      </c>
+      <c r="F116" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <v>43126</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117" t="s">
+        <v>218</v>
+      </c>
+      <c r="E117">
+        <v>400</v>
+      </c>
+      <c r="F117" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <v>43126</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>39</v>
+      </c>
+      <c r="D118" t="s">
+        <v>219</v>
+      </c>
+      <c r="E118">
+        <v>130</v>
+      </c>
+      <c r="F118" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <v>43126</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>41</v>
+      </c>
+      <c r="D119" t="s">
+        <v>220</v>
+      </c>
+      <c r="E119">
+        <v>130</v>
+      </c>
+      <c r="F119" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>43126</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>221</v>
+      </c>
+      <c r="D120" t="s">
+        <v>222</v>
+      </c>
+      <c r="E120">
+        <v>10</v>
+      </c>
+      <c r="F120" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
+        <v>43126</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>52</v>
+      </c>
+      <c r="D121" t="s">
+        <v>223</v>
+      </c>
+      <c r="E121">
+        <v>32.5</v>
+      </c>
+      <c r="F121" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>43126</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>39</v>
+      </c>
+      <c r="D122" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>136</v>
+      </c>
+      <c r="F122" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F122"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/budget_overview.xlsx
+++ b/budget_overview.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_repos\bank_statement_parser\overview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_repos\bank_statement_parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="budgetten" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="352">
   <si>
     <t>Boodschappen</t>
   </si>
@@ -931,9 +931,6 @@
     <t>Wegenbelasting</t>
   </si>
   <si>
-    <t>Geldopname</t>
-  </si>
-  <si>
     <t>Schuldaflossing</t>
   </si>
   <si>
@@ -1085,6 +1082,9 @@
   </si>
   <si>
     <t>waterlevering</t>
+  </si>
+  <si>
+    <t>Overige uitgaven</t>
   </si>
 </sst>
 </file>
@@ -1422,9 +1422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1437,10 +1435,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1482,7 +1480,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B2" s="2">
         <v>2702.06</v>
@@ -1543,7 +1541,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B3" s="2">
         <v>2235.94</v>
@@ -1604,7 +1602,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
@@ -1680,7 +1678,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2">
@@ -1742,10 +1740,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1967,12 +1965,14 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-150</v>
+      </c>
       <c r="C12" s="2">
         <f>SUMIFS(transacties!$E:$E,transacties!$F:$F,$A12,transacties!$B:$B,C$8)</f>
-        <v>0</v>
+        <v>-123.09</v>
       </c>
       <c r="D12" s="2">
         <f>SUMIFS(transacties!$E:$E,transacties!$F:$F,$A12,transacties!$B:$B,D$8)</f>
@@ -2020,19 +2020,19 @@
       </c>
       <c r="P12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-123.09</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>317</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>-150</v>
+        <v>-50</v>
       </c>
       <c r="C13" s="2">
         <f>SUMIFS(transacties!$E:$E,transacties!$F:$F,$A13,transacties!$B:$B,C$8)</f>
-        <v>-123.09</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
         <f>SUMIFS(transacties!$E:$E,transacties!$F:$F,$A13,transacties!$B:$B,D$8)</f>
@@ -2080,15 +2080,15 @@
       </c>
       <c r="P13" s="2">
         <f t="shared" si="2"/>
-        <v>-123.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="C14" s="2">
         <f>SUMIFS(transacties!$E:$E,transacties!$F:$F,$A14,transacties!$B:$B,C$8)</f>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>294</v>
       </c>
       <c r="B15" s="2">
-        <v>-100</v>
+        <v>-60</v>
       </c>
       <c r="C15" s="2">
         <f>SUMIFS(transacties!$E:$E,transacties!$F:$F,$A15,transacties!$B:$B,C$8)</f>
@@ -2205,18 +2205,18 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>294</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2">
-        <v>-60</v>
+        <v>-20</v>
       </c>
       <c r="C16" s="2">
         <f>SUMIFS(transacties!$E:$E,transacties!$F:$F,$A16,transacties!$B:$B,C$8)</f>
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="D16" s="2">
         <f>SUMIFS(transacties!$E:$E,transacties!$F:$F,$A16,transacties!$B:$B,D$8)</f>
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="E16" s="2">
         <f>SUMIFS(transacties!$E:$E,transacties!$F:$F,$A16,transacties!$B:$B,E$8)</f>
@@ -2260,23 +2260,23 @@
       </c>
       <c r="P16" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2">
-        <v>-20</v>
+        <v>-60</v>
       </c>
       <c r="C17" s="2">
         <f>SUMIFS(transacties!$E:$E,transacties!$F:$F,$A17,transacties!$B:$B,C$8)</f>
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
         <f>SUMIFS(transacties!$E:$E,transacties!$F:$F,$A17,transacties!$B:$B,D$8)</f>
-        <v>-40</v>
+        <v>-37.5</v>
       </c>
       <c r="E17" s="2">
         <f>SUMIFS(transacties!$E:$E,transacties!$F:$F,$A17,transacties!$B:$B,E$8)</f>
@@ -2320,23 +2320,21 @@
       </c>
       <c r="P17" s="2">
         <f t="shared" si="2"/>
-        <v>-135</v>
+        <v>-37.5</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2">
-        <v>-60</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="2">
         <f>SUMIFS(transacties!$E:$E,transacties!$F:$F,$A18,transacties!$B:$B,C$8)</f>
         <v>0</v>
       </c>
       <c r="D18" s="2">
         <f>SUMIFS(transacties!$E:$E,transacties!$F:$F,$A18,transacties!$B:$B,D$8)</f>
-        <v>-37.5</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
         <f>SUMIFS(transacties!$E:$E,transacties!$F:$F,$A18,transacties!$B:$B,E$8)</f>
@@ -2380,7 +2378,7 @@
       </c>
       <c r="P18" s="2">
         <f t="shared" si="2"/>
-        <v>-37.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -2642,7 +2640,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
@@ -2650,58 +2648,58 @@
         <v>-1337.8999999999996</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ref="D24:P24" si="3">SUM(D9:D22)</f>
+        <f>SUM(D9:D22)</f>
         <v>-499.71999999999991</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="3"/>
+        <f>SUM(E9:E22)</f>
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="3"/>
+        <f>SUM(F9:F22)</f>
         <v>0</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="3"/>
+        <f>SUM(G9:G22)</f>
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="3"/>
+        <f>SUM(H9:H22)</f>
         <v>0</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="3"/>
+        <f>SUM(I9:I22)</f>
         <v>0</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="3"/>
+        <f>SUM(J9:J22)</f>
         <v>0</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="3"/>
+        <f>SUM(K9:K22)</f>
         <v>0</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="3"/>
+        <f>SUM(L9:L22)</f>
         <v>0</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="3"/>
+        <f>SUM(M9:M22)</f>
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="3"/>
+        <f>SUM(N9:N22)</f>
         <v>0</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2">
-        <f t="shared" si="3"/>
+        <f>SUM(P9:P22)</f>
         <v>-1837.6199999999997</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C25" s="2">
         <f>SUMIFS(transacties!$E:$E,transacties!$F:$F,$A25,transacties!$B:$B,C$8)</f>
@@ -2754,7 +2752,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1">
@@ -2796,7 +2794,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B29" s="2">
         <v>-146</v>
@@ -2855,12 +2853,12 @@
         <v>0</v>
       </c>
       <c r="Q29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B30" s="2">
         <v>-39.450000000000003</v>
@@ -2915,7 +2913,7 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2">
-        <f t="shared" ref="P30:P51" si="4">SUM(C30:N30)</f>
+        <f t="shared" ref="P30:P51" si="3">SUM(C30:N30)</f>
         <v>-78.900000000000006</v>
       </c>
     </row>
@@ -2974,13 +2972,13 @@
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B32" s="2">
         <v>-130</v>
@@ -3035,13 +3033,13 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-145</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B33" s="2">
         <v>-88.51</v>
@@ -3096,7 +3094,7 @@
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3157,13 +3155,13 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B35" s="2">
         <f>-1490.56+449</f>
@@ -3219,7 +3217,7 @@
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1490.56</v>
       </c>
     </row>
@@ -3281,13 +3279,13 @@
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-177</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B37" s="2">
         <v>-22.5</v>
@@ -3342,13 +3340,13 @@
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-45</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B38" s="2">
         <v>-27</v>
@@ -3403,13 +3401,13 @@
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B39" s="2">
         <v>-1000</v>
@@ -3464,13 +3462,13 @@
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B40" s="2">
         <v>-1497.5</v>
@@ -3525,16 +3523,16 @@
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B41" s="2">
         <v>-9.91</v>
@@ -3589,13 +3587,13 @@
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B42" s="2">
         <f>-140.06</f>
@@ -3651,7 +3649,7 @@
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-144.29000000000002</v>
       </c>
     </row>
@@ -3710,13 +3708,13 @@
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-557.5</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B44" s="2">
         <f>-84.73-27.5-33.333</f>
@@ -3772,7 +3770,7 @@
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-55</v>
       </c>
     </row>
@@ -3834,13 +3832,13 @@
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-53.49</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B46" s="2">
         <v>-41.58</v>
@@ -3895,13 +3893,13 @@
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-61.399999999999991</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B47" s="2">
         <v>-71</v>
@@ -3956,16 +3954,16 @@
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-51.75</v>
       </c>
       <c r="Q47" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B48" s="2">
         <v>-476.06</v>
@@ -4020,7 +4018,7 @@
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4081,13 +4079,13 @@
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-75</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B50" s="2">
         <v>-320</v>
@@ -4142,13 +4140,13 @@
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-260</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B51" s="2">
         <v>-263.64999999999998</v>
@@ -4203,11 +4201,11 @@
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-404.54999999999995</v>
       </c>
       <c r="Q51" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4261,7 +4259,7 @@
           <xm:sqref>C10:N10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{D47612A4-6C24-4234-B2B4-AD79208C87A3}">
+          <x14:cfRule type="iconSet" priority="14" id="{5D90A927-F307-42B4-819E-DE0325BC4CAD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4270,17 +4268,17 @@
                 <xm:f>$B$12</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num" gte="0">
-                <xm:f>$B$11*0.5</xm:f>
+                <xm:f>$B$12*0.5</xm:f>
               </x14:cfvo>
               <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
               <x14:cfIcon iconSet="3TrafficLights1" iconId="1"/>
               <x14:cfIcon iconSet="NoIcons" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C11:N11</xm:sqref>
+          <xm:sqref>C12:N12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{5D90A927-F307-42B4-819E-DE0325BC4CAD}">
+          <x14:cfRule type="iconSet" priority="13" id="{F5597E96-58C0-4D10-8C86-11356E736B66}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4299,7 +4297,7 @@
           <xm:sqref>C13:N13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{F5597E96-58C0-4D10-8C86-11356E736B66}">
+          <x14:cfRule type="iconSet" priority="12" id="{CF77AB71-A194-4675-80BE-1399C6C41DD0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4318,7 +4316,7 @@
           <xm:sqref>C14:N14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{CF77AB71-A194-4675-80BE-1399C6C41DD0}">
+          <x14:cfRule type="iconSet" priority="9" id="{058C1B57-D2BC-4165-BBD0-154F6326BD3E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4337,7 +4335,7 @@
           <xm:sqref>C15:N15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{058C1B57-D2BC-4165-BBD0-154F6326BD3E}">
+          <x14:cfRule type="iconSet" priority="8" id="{72938ABF-49AD-4C75-B36F-6B9DB4CEFDC3}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4354,44 +4352,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>C16:N16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{72938ABF-49AD-4C75-B36F-6B9DB4CEFDC3}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>$B$17</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>$B$17*0.5</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="1"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C17:N17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{2A332B7E-2101-46CF-A048-70734547B7BE}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>$B$18</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>$B$18*0.5</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="1"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C18:N18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="6" id="{FBA0BA0B-49B9-4A48-A934-97AC261A1CEB}">
@@ -4469,6 +4429,25 @@
           </x14:cfRule>
           <xm:sqref>C22:N22</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="20" id="{D47612A4-6C24-4234-B2B4-AD79208C87A3}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>#REF!</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>$B$11*0.5</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="1"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C11:N11</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -4479,7 +4458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4492,22 +4471,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4607,7 +4586,7 @@
         <v>-25.79</v>
       </c>
       <c r="F6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4627,7 +4606,7 @@
         <v>601.77</v>
       </c>
       <c r="F7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4647,7 +4626,7 @@
         <v>-140.9</v>
       </c>
       <c r="F8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4667,7 +4646,7 @@
         <v>-39.450000000000003</v>
       </c>
       <c r="F9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4707,7 +4686,7 @@
         <v>-22.5</v>
       </c>
       <c r="F11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4727,7 +4706,7 @@
         <v>-7.2</v>
       </c>
       <c r="F12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4867,7 +4846,7 @@
         <v>-2</v>
       </c>
       <c r="F19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4907,7 +4886,7 @@
         <v>-105</v>
       </c>
       <c r="F21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4947,7 +4926,7 @@
         <v>-9.9499999999999993</v>
       </c>
       <c r="F23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4967,7 +4946,7 @@
         <v>-1.3</v>
       </c>
       <c r="F24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4987,7 +4966,7 @@
         <v>-1.4</v>
       </c>
       <c r="F25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5004,7 +4983,7 @@
         <v>-27.5</v>
       </c>
       <c r="F26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5024,7 +5003,7 @@
         <v>-71</v>
       </c>
       <c r="F27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5044,7 +5023,7 @@
         <v>-20</v>
       </c>
       <c r="F28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5064,7 +5043,7 @@
         <v>-25</v>
       </c>
       <c r="F29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5084,7 +5063,7 @@
         <v>-17.48</v>
       </c>
       <c r="F30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5124,7 +5103,7 @@
         <v>-9.91</v>
       </c>
       <c r="F32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5164,7 +5143,7 @@
         <v>-0.65</v>
       </c>
       <c r="F34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5184,7 +5163,7 @@
         <v>-64.349999999999994</v>
       </c>
       <c r="F35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5204,7 +5183,7 @@
         <v>-25</v>
       </c>
       <c r="F36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5224,7 +5203,7 @@
         <v>-114.09</v>
       </c>
       <c r="F37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5244,7 +5223,7 @@
         <v>-9</v>
       </c>
       <c r="F38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5264,7 +5243,7 @@
         <v>-29.95</v>
       </c>
       <c r="F39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5284,7 +5263,7 @@
         <v>-18</v>
       </c>
       <c r="F40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5364,7 +5343,7 @@
         <v>-4.7</v>
       </c>
       <c r="F44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5404,7 +5383,7 @@
         <v>130.9</v>
       </c>
       <c r="F46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5424,7 +5403,7 @@
         <v>-130.9</v>
       </c>
       <c r="F47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5444,7 +5423,7 @@
         <v>-18</v>
       </c>
       <c r="F48" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5464,7 +5443,7 @@
         <v>-1.6</v>
       </c>
       <c r="F49" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5484,7 +5463,7 @@
         <v>-4.55</v>
       </c>
       <c r="F50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5564,7 +5543,7 @@
         <v>60</v>
       </c>
       <c r="F54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5584,7 +5563,7 @@
         <v>-60</v>
       </c>
       <c r="F55" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5704,7 +5683,7 @@
         <v>-0.5</v>
       </c>
       <c r="F61" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5724,7 +5703,7 @@
         <v>-27</v>
       </c>
       <c r="F62" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5804,7 +5783,7 @@
         <v>-60</v>
       </c>
       <c r="F66" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5844,7 +5823,7 @@
         <v>-3.9</v>
       </c>
       <c r="F68" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5884,7 +5863,7 @@
         <v>451</v>
       </c>
       <c r="F70" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5964,7 +5943,7 @@
         <v>-20</v>
       </c>
       <c r="F74" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5984,7 +5963,7 @@
         <v>15</v>
       </c>
       <c r="F75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6024,7 +6003,7 @@
         <v>-10</v>
       </c>
       <c r="F77" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6084,7 +6063,7 @@
         <v>-6.3</v>
       </c>
       <c r="F80" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6124,7 +6103,7 @@
         <v>-9.34</v>
       </c>
       <c r="F82" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6144,7 +6123,7 @@
         <v>-8</v>
       </c>
       <c r="F83" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6244,7 +6223,7 @@
         <v>-6</v>
       </c>
       <c r="F88" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6264,7 +6243,7 @@
         <v>-26.5</v>
       </c>
       <c r="F89" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6284,7 +6263,7 @@
         <v>-2.75</v>
       </c>
       <c r="F90" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6304,7 +6283,7 @@
         <v>-11.5</v>
       </c>
       <c r="F91" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6324,7 +6303,7 @@
         <v>-10</v>
       </c>
       <c r="F92" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6344,7 +6323,7 @@
         <v>-10</v>
       </c>
       <c r="F93" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6364,7 +6343,7 @@
         <v>-145</v>
       </c>
       <c r="F94" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6384,7 +6363,7 @@
         <v>49</v>
       </c>
       <c r="F95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -6404,7 +6383,7 @@
         <v>-41.58</v>
       </c>
       <c r="F96" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6424,7 +6403,7 @@
         <v>15</v>
       </c>
       <c r="F97" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6464,7 +6443,7 @@
         <v>2235.94</v>
       </c>
       <c r="F99" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6484,7 +6463,7 @@
         <v>-86</v>
       </c>
       <c r="F100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6604,7 +6583,7 @@
         <v>2702.06</v>
       </c>
       <c r="F106" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6684,7 +6663,7 @@
         <v>-28</v>
       </c>
       <c r="F110" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G110">
         <v>31.61</v>
@@ -6747,7 +6726,7 @@
         <v>-130</v>
       </c>
       <c r="F113" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6767,7 +6746,7 @@
         <v>-130</v>
       </c>
       <c r="F114" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6787,7 +6766,7 @@
         <v>-10</v>
       </c>
       <c r="F115" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6847,7 +6826,7 @@
         <v>-70</v>
       </c>
       <c r="F118" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6867,7 +6846,7 @@
         <v>-14.5</v>
       </c>
       <c r="F119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6907,7 +6886,7 @@
         <v>-10</v>
       </c>
       <c r="F121" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6927,7 +6906,7 @@
         <v>-50</v>
       </c>
       <c r="F122" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6947,7 +6926,7 @@
         <v>-20</v>
       </c>
       <c r="F123" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6967,7 +6946,7 @@
         <v>353.18</v>
       </c>
       <c r="F124" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6987,7 +6966,7 @@
         <v>-353.18</v>
       </c>
       <c r="F125" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7007,7 +6986,7 @@
         <v>208.75</v>
       </c>
       <c r="F126" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7027,7 +7006,7 @@
         <v>-208.75</v>
       </c>
       <c r="F127" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7107,7 +7086,7 @@
         <v>-1490.56</v>
       </c>
       <c r="F131" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7127,7 +7106,7 @@
         <v>-2.79</v>
       </c>
       <c r="F132" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7187,7 +7166,7 @@
         <v>-757.65</v>
       </c>
       <c r="F135" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7267,7 +7246,7 @@
         <v>-263.64999999999998</v>
       </c>
       <c r="F139" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -7287,7 +7266,7 @@
         <v>-22.5</v>
       </c>
       <c r="F140" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7304,7 +7283,7 @@
         <v>-27.5</v>
       </c>
       <c r="F141" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7324,7 +7303,7 @@
         <v>-39.450000000000003</v>
       </c>
       <c r="F142" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7344,7 +7323,7 @@
         <v>-45.96</v>
       </c>
       <c r="F143" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7364,7 +7343,7 @@
         <v>-25</v>
       </c>
       <c r="F144" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7384,7 +7363,7 @@
         <v>-30</v>
       </c>
       <c r="F145" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7404,7 +7383,7 @@
         <v>-6.75</v>
       </c>
       <c r="F146" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7444,7 +7423,7 @@
         <v>-2</v>
       </c>
       <c r="F148" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7464,7 +7443,7 @@
         <v>-5.6</v>
       </c>
       <c r="F149" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7484,7 +7463,7 @@
         <v>-5.6</v>
       </c>
       <c r="F150" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7624,7 +7603,7 @@
         <v>-15.15</v>
       </c>
       <c r="F157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7644,7 +7623,7 @@
         <v>-3</v>
       </c>
       <c r="F158" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7664,7 +7643,7 @@
         <v>-3.3</v>
       </c>
       <c r="F159" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7724,7 +7703,7 @@
         <v>654</v>
       </c>
       <c r="F162" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7744,7 +7723,7 @@
         <v>-654</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7764,7 +7743,7 @@
         <v>-37.5</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7804,7 +7783,7 @@
         <v>-1.3</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7864,7 +7843,7 @@
         <v>-14.99</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7884,7 +7863,7 @@
         <v>20</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7904,7 +7883,7 @@
         <v>-13.97</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7944,7 +7923,7 @@
         <v>-9.65</v>
       </c>
       <c r="F173" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7984,7 +7963,7 @@
         <v>-10</v>
       </c>
       <c r="F175" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8004,7 +7983,7 @@
         <v>-6.4</v>
       </c>
       <c r="F176" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8024,7 +8003,7 @@
         <v>-39</v>
       </c>
       <c r="F177" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8041,7 +8020,7 @@
         <v>-38.68</v>
       </c>
       <c r="F178" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -8061,7 +8040,7 @@
         <v>-9.91</v>
       </c>
       <c r="F179" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8101,7 +8080,7 @@
         <v>20</v>
       </c>
       <c r="F181" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8181,7 +8160,7 @@
         <v>-51.75</v>
       </c>
       <c r="F185" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8201,7 +8180,7 @@
         <v>50</v>
       </c>
       <c r="F186" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
